--- a/pdfs/output/extracted_data_index.xlsx
+++ b/pdfs/output/extracted_data_index.xlsx
@@ -474,27 +474,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>161126</t>
+          <t>an</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Nov 26, 2016</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>stcode</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -560,27 +560,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[</t>
+          <t>Prince Upgrades &amp; Support (From: Nov 26, 2016, Until: Nov 26, 2017)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>950</v>
       </c>
     </row>
   </sheetData>

--- a/pdfs/output/extracted_data_index.xlsx
+++ b/pdfs/output/extracted_data_index.xlsx
@@ -499,7 +499,8 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>ABN 32 101 193 560
+Street</t>
         </is>
       </c>
       <c r="G2" t="b">

--- a/pdfs/output/extracted_data_index.xlsx
+++ b/pdfs/output/extracted_data_index.xlsx
@@ -474,12 +474,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>an</t>
+          <t>date</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nov 26, 2016</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -494,13 +494,35 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>stcode</t>
+          <t>steodeCiby</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ABN 32 101 193 560
-Street</t>
+          <t>ABN32LOL1023.560
+Street
+PosteodeCiby
+Country
+Invoicedate Nov26,2016
+Inveicenumber LO1L26
+Payimentdue 3odaysatlerinvoicedate
+Description Prom Unul Amount
+PrinceUperadesSuppart Nov26,2010 Nov26,2017 UsDS050.00
+Total UsDS950.00
+EET
+Pleaselransteramountto
+Bankaccountnaumes YesLogiePlyLid
+NaineofBank CommonsealthBankofAustraliaCCLAI
+BankStateBranchBS2 068010
+BankStateBranchBS2 068010
+BankStateBranchBS2 068010
+Bankacecountnumber IBeol652
+BankSWIFTcode CTBAAULS
+Bankaddress eerSwanstonSt,Melbourne,VIC3000,Australia
+TheBSBonaberidentitiesabranelofafineneialinstititioninAustealic.WhentrasterringmienesyteAustreliat,the
+BSBoinoaberisueedltasedierwiththebankaeeeutnunmtbertndtheSWIPTcede.AustreliinbanksdenetuseIBAN
+nonthers,
+ywaveslooic.COM</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -518,73 +540,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>serial_number</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>hsn_sac</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>quantity</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>unit_price</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>total_amount</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Prince Upgrades &amp; Support (From: Nov 26, 2016, Until: Nov 26, 2017)</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>950</v>
-      </c>
-      <c r="F2" t="n">
-        <v>950</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>